--- a/common/common/file/doc/StandardDataDocInit.xlsx
+++ b/common/common/file/doc/StandardDataDocInit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D3E0D9-229B-4B52-B9E2-F0261B00EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED312719-E174-45F2-BBC1-9D74A12CB5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1110" windowWidth="23610" windowHeight="12855" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="31" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>ColumnName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>Json_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1268,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,31 +1319,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,13 +1602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z54"/>
+  <dimension ref="B1:Z56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1637,11 +1645,11 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -1666,11 +1674,11 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -1695,11 +1703,11 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="2:26" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -1724,11 +1732,11 @@
       <c r="Z4" s="28"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1753,11 +1761,11 @@
       <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -1914,7 +1922,7 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1923,28 +1931,28 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="53"/>
     </row>
     <row r="12" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
@@ -1956,28 +1964,28 @@
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="63"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="50"/>
     </row>
     <row r="13" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
@@ -3304,10 +3312,10 @@
         <v>103</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -3333,37 +3341,103 @@
       <c r="Z53" s="43"/>
     </row>
     <row r="54" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="24"/>
+    </row>
+    <row r="55" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="48"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="43"/>
+    </row>
+    <row r="56" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/common/common/file/doc/StandardDataDocInit.xlsx
+++ b/common/common/file/doc/StandardDataDocInit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED312719-E174-45F2-BBC1-9D74A12CB5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018488B-C1EC-4EF9-813A-60EAEDB0A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="31" r:id="rId1"/>
@@ -446,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -691,36 +691,8 @@
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,39 +877,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
@@ -1126,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,17 +1087,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,7 +1106,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,55 +1121,55 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,25 +1178,37 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,37 +1217,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1229,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,7 +1238,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1247,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1608,14 +1536,13 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="10" customWidth="1"/>
-    <col min="2" max="33" width="15.7109375" style="10" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="33" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1645,185 +1572,185 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="27"/>
-    </row>
-    <row r="4" spans="2:26" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="23"/>
+    </row>
+    <row r="4" spans="2:26" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="28"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="29"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="25"/>
     </row>
     <row r="6" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="27"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="23"/>
     </row>
     <row r="7" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="31"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1853,10 +1780,10 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="33"/>
+      <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1886,10 +1813,10 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="35"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1919,10 +1846,10 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="35"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1931,64 +1858,64 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="53"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
     </row>
     <row r="12" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="50"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="44"/>
     </row>
     <row r="13" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2018,10 +1945,10 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="38"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2051,10 +1978,10 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
-      <c r="Z14" s="38"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2084,10 +2011,10 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="38"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2117,10 +2044,10 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="38"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2150,10 +2077,10 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="38"/>
+      <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2183,10 +2110,10 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="38"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2216,10 +2143,10 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
-      <c r="Z19" s="38"/>
+      <c r="Z19" s="34"/>
     </row>
     <row r="20" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2249,43 +2176,43 @@
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="38"/>
+      <c r="Z20" s="34"/>
     </row>
     <row r="21" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="40"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2294,67 +2221,67 @@
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="42"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="47"/>
     </row>
     <row r="23" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="43"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="37"/>
     </row>
     <row r="24" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2381,13 +2308,13 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
-      <c r="Z24" s="38"/>
+      <c r="Z24" s="34"/>
     </row>
     <row r="25" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2414,13 +2341,13 @@
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="38"/>
+      <c r="Z25" s="34"/>
     </row>
     <row r="26" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2447,13 +2374,13 @@
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
-      <c r="Z26" s="38"/>
+      <c r="Z26" s="34"/>
     </row>
     <row r="27" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2480,13 +2407,13 @@
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="38"/>
+      <c r="Z27" s="34"/>
     </row>
     <row r="28" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2513,13 +2440,13 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
-      <c r="Z28" s="38"/>
+      <c r="Z28" s="34"/>
     </row>
     <row r="29" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2546,13 +2473,13 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
-      <c r="Z29" s="38"/>
+      <c r="Z29" s="34"/>
     </row>
     <row r="30" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2579,43 +2506,43 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
-      <c r="Z30" s="38"/>
+      <c r="Z30" s="34"/>
     </row>
     <row r="31" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="40"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="31"/>
     </row>
     <row r="32" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2624,67 +2551,67 @@
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="42"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="47"/>
     </row>
     <row r="33" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="43"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="37"/>
     </row>
     <row r="34" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2711,13 +2638,13 @@
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
-      <c r="Z34" s="38"/>
+      <c r="Z34" s="34"/>
     </row>
     <row r="35" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2744,13 +2671,13 @@
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
-      <c r="Z35" s="38"/>
+      <c r="Z35" s="34"/>
     </row>
     <row r="36" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2777,13 +2704,13 @@
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
-      <c r="Z36" s="38"/>
+      <c r="Z36" s="34"/>
     </row>
     <row r="37" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2810,13 +2737,13 @@
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
-      <c r="Z37" s="38"/>
+      <c r="Z37" s="34"/>
     </row>
     <row r="38" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2843,13 +2770,13 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
-      <c r="Z38" s="38"/>
+      <c r="Z38" s="34"/>
     </row>
     <row r="39" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2876,13 +2803,13 @@
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
-      <c r="Z39" s="38"/>
+      <c r="Z39" s="34"/>
     </row>
     <row r="40" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2909,43 +2836,43 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
-      <c r="Z40" s="38"/>
+      <c r="Z40" s="34"/>
     </row>
     <row r="41" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="40"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="31"/>
     </row>
     <row r="42" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="36" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2954,67 +2881,67 @@
       <c r="D42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="42"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="47"/>
     </row>
     <row r="43" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="43"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="37"/>
     </row>
     <row r="44" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3041,13 +2968,13 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
-      <c r="Z44" s="38"/>
+      <c r="Z44" s="34"/>
     </row>
     <row r="45" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3074,13 +3001,13 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
-      <c r="Z45" s="38"/>
+      <c r="Z45" s="34"/>
     </row>
     <row r="46" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3107,13 +3034,13 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
-      <c r="Z46" s="38"/>
+      <c r="Z46" s="34"/>
     </row>
     <row r="47" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3140,13 +3067,13 @@
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
-      <c r="Z47" s="38"/>
+      <c r="Z47" s="34"/>
     </row>
     <row r="48" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -3173,13 +3100,13 @@
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
-      <c r="Z48" s="38"/>
+      <c r="Z48" s="34"/>
     </row>
     <row r="49" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3206,13 +3133,13 @@
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
-      <c r="Z49" s="38"/>
+      <c r="Z49" s="34"/>
     </row>
     <row r="50" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3239,43 +3166,43 @@
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
-      <c r="Z50" s="38"/>
+      <c r="Z50" s="34"/>
     </row>
     <row r="51" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="40"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="31"/>
     </row>
     <row r="52" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -3284,64 +3211,64 @@
       <c r="D52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="24"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="47"/>
     </row>
     <row r="53" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="43"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="31"/>
     </row>
     <row r="54" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3350,94 +3277,94 @@
       <c r="D54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="24"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="47"/>
     </row>
     <row r="55" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="43"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="37"/>
     </row>
     <row r="56" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="48"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
